--- a/.idea/legal_dates.xlsx
+++ b/.idea/legal_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,31 @@
           <t>total_issues_sub_total_maturities</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_open</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_close</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_delta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fed_maturities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>fed_investments</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -477,6 +502,21 @@
       <c r="E2" t="n">
         <v>20000000000</v>
       </c>
+      <c r="F2" t="n">
+        <v>1624404</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17881</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10875237800</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6001000000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -494,6 +534,21 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1205</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1201000000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -511,6 +566,21 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -528,6 +598,21 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -545,6 +630,21 @@
       <c r="E6" t="n">
         <v>25000000</v>
       </c>
+      <c r="F6" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12475</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -562,6 +662,21 @@
       <c r="E7" t="n">
         <v>-45000000000</v>
       </c>
+      <c r="F7" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-25846</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6657527900</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1732000000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -579,6 +694,21 @@
       <c r="E8" t="n">
         <v>38000000000</v>
       </c>
+      <c r="F8" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="H8" t="n">
+        <v>112746</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7457547200</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12801000000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -596,6 +726,21 @@
       <c r="E9" t="n">
         <v>25000000000</v>
       </c>
+      <c r="F9" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66850</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18724230800</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3601000000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -613,6 +758,21 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5496</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1199000000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -630,6 +790,21 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -647,6 +822,21 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -664,6 +854,21 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4469</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -681,6 +886,21 @@
       <c r="E14" t="n">
         <v>-45000000000</v>
       </c>
+      <c r="F14" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-22822</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5332930800</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1734000000</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -698,6 +918,21 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-17268</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6001000000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -715,6 +950,21 @@
       <c r="E16" t="n">
         <v>32000000000</v>
       </c>
+      <c r="F16" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44644</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16277175800</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2401000000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -732,6 +982,21 @@
       <c r="E17" t="n">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1825498</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3674</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1732000000</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -749,6 +1014,15 @@
       <c r="E18" t="n">
         <v>0</v>
       </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -766,6 +1040,15 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -783,6 +1066,15 @@
       <c r="E20" t="n">
         <v>0</v>
       </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8801000000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -799,6 +1091,15 @@
       </c>
       <c r="E21" t="n">
         <v>-30000000000</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>6398553400</v>
+      </c>
+      <c r="J21" t="n">
+        <v>12825000000</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/legal_dates.xlsx
+++ b/.idea/legal_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,16 @@
           <t>fed_investments</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mbs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>swap_delta</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -517,6 +527,10 @@
       <c r="J2" t="n">
         <v>6001000000</v>
       </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-26054</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -549,6 +563,10 @@
       <c r="J3" t="n">
         <v>1201000000</v>
       </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>-40</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -581,6 +599,10 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>-275</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -613,6 +635,8 @@
       <c r="J5" t="n">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -645,6 +669,8 @@
       <c r="J6" t="n">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -677,6 +703,10 @@
       <c r="J7" t="n">
         <v>1732000000</v>
       </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2114</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -709,6 +739,10 @@
       <c r="J8" t="n">
         <v>12801000000</v>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -741,6 +775,10 @@
       <c r="J9" t="n">
         <v>3601000000</v>
       </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>-26353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -773,6 +811,10 @@
       <c r="J10" t="n">
         <v>1199000000</v>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -805,6 +847,10 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>-3550</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -837,6 +883,8 @@
       <c r="J12" t="n">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -869,6 +917,8 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -901,6 +951,10 @@
       <c r="J14" t="n">
         <v>1734000000</v>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-1616</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -933,6 +987,10 @@
       <c r="J15" t="n">
         <v>6001000000</v>
       </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-1339</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -965,6 +1023,10 @@
       <c r="J16" t="n">
         <v>2401000000</v>
       </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-3756</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -997,6 +1059,8 @@
       <c r="J17" t="n">
         <v>1732000000</v>
       </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1023,6 +1087,8 @@
       <c r="J18" t="n">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1049,6 +1115,8 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1075,6 +1143,8 @@
       <c r="J20" t="n">
         <v>8801000000</v>
       </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1101,6 +1171,176 @@
       <c r="J21" t="n">
         <v>12825000000</v>
       </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20072900</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>12825000000</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20073000</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>165000000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>186000000000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-21000000000</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>12161641600</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>20073100</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>196000000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>151000000000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>45000000000</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>22273141400</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1750000000</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>20080100</v>
+      </c>
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>20080200</v>
+      </c>
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20080300</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8825000000</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/.idea/legal_dates.xlsx
+++ b/.idea/legal_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,195 +445,407 @@
           <t>is_legal_date</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>^GSPC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DJIA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CL=F</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DX-Y.NYB</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20070900</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20070900</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="C2" t="n">
+        <v>-0.5632536362400912</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.384137043556206</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.68510545953476</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.032944016248662</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2799343199681946</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>20071000</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20071000</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
+      <c r="C3" t="n">
+        <v>1.046480713249013</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.437158088986327</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-3.233962947899218</v>
+      </c>
+      <c r="F3" t="n">
+        <v>10.77148962157504</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.05167485515584625</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>20071100</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20071100</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20071200</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20071200</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20071300</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20071300</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
+      <c r="C6" t="n">
+        <v>-0.9304001033515519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04003802420691794</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8178389810078175</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-2.868593479223176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.09311397048957253</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20071400</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20071400</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
+      <c r="C7" t="n">
+        <v>1.346659218604838</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.137864497775151</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1020691934908161</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.268636904522815</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.3107472752416666</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20071500</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20071500</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.9001927860159984</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8423227005985889</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.210777523318008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.893062925307842</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1871688765757988</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20071600</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20071600</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
+      <c r="C9" t="n">
+        <v>-0.3425422915885264</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.5061907762122538</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.5868011479533544</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-3.07143397244584</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2812465031941732</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>20071700</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20071700</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.2840978788711261</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.2344075126535486</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4663687257759945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01321161441250016</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.4258371810480386</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>20071800</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20071800</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>20071900</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20071900</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>20072000</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20072000</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.8408085840118025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.03345770878211009</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.04955514732708439</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9.358729255617085</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.1145720319800436</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>20072100</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20072100</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.1670468868134096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5945306672427577</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.717915748058488</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4.551414524024201</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.7415134041489883</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>20072200</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20072200</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5751390254972526</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6167461824244995</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.0721124528779416</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.499060081496248</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.1576805741719043</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20072300</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20072300</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
+      <c r="C16" t="n">
+        <v>-1.233635386138733</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.311434002946211</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.5487197814543</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-4.720808366580733</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.2947976093922036</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20072400</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20072400</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
+      <c r="C17" t="n">
+        <v>-0.6223250256536601</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.6875838878253876</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6316771683602186</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-6.784552766329935</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.2637965694370324</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20072500</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20072500</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20072600</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20072600</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20072700</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20072700</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7385469044350499</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4343630519790444</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.479506711433924</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.543552305640244</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.8055136709291276</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/legal_dates.xlsx
+++ b/.idea/legal_dates.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,25 +447,75 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>total_issues</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>total_maturities</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_issues_sub_total_maturities</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_open</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_close</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>treasury_delta</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>fed_maturities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>fed_investments</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>mbs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>swap_delta</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>^GSPC</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>DJIA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>CL=F</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TSLA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DX-Y.NYB</t>
         </is>
@@ -479,18 +529,46 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>175000000000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>155000000000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>20000000000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1624404</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17881</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10875237800</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>-26054</v>
+      </c>
+      <c r="M2" t="n">
         <v>-0.5632536362400912</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>-1.384137043556206</v>
       </c>
-      <c r="E2" t="n">
+      <c r="O2" t="n">
         <v>0.68510545953476</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>2.032944016248662</v>
       </c>
-      <c r="G2" t="n">
+      <c r="Q2" t="n">
         <v>0.2799343199681946</v>
       </c>
     </row>
@@ -502,18 +580,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1642285</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-1205</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1201000000</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.046480713249013</v>
       </c>
-      <c r="D3" t="n">
+      <c r="N3" t="n">
         <v>1.437158088986327</v>
       </c>
-      <c r="E3" t="n">
+      <c r="O3" t="n">
         <v>-3.233962947899218</v>
       </c>
-      <c r="F3" t="n">
+      <c r="P3" t="n">
         <v>10.77148962157504</v>
       </c>
-      <c r="G3" t="n">
+      <c r="Q3" t="n">
         <v>-0.05167485515584625</v>
       </c>
     </row>
@@ -524,11 +630,39 @@
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>-275</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -537,11 +671,37 @@
       <c r="B5" t="b">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -551,18 +711,44 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1641080</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12475</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>-0.9304001033515519</v>
       </c>
-      <c r="D6" t="n">
+      <c r="N6" t="n">
         <v>0.04003802420691794</v>
       </c>
-      <c r="E6" t="n">
+      <c r="O6" t="n">
         <v>0.8178389810078175</v>
       </c>
-      <c r="F6" t="n">
+      <c r="P6" t="n">
         <v>-2.868593479223176</v>
       </c>
-      <c r="G6" t="n">
+      <c r="Q6" t="n">
         <v>-0.09311397048957253</v>
       </c>
     </row>
@@ -574,18 +760,48 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>135000000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>180000000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1653555</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-25846</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6657527900</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>59556734928</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2114</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.346659218604838</v>
       </c>
-      <c r="D7" t="n">
+      <c r="N7" t="n">
         <v>2.137864497775151</v>
       </c>
-      <c r="E7" t="n">
+      <c r="O7" t="n">
         <v>-0.1020691934908161</v>
       </c>
-      <c r="F7" t="n">
+      <c r="P7" t="n">
         <v>1.268636904522815</v>
       </c>
-      <c r="G7" t="n">
+      <c r="Q7" t="n">
         <v>-0.3107472752416666</v>
       </c>
     </row>
@@ -597,18 +813,46 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
+        <v>94000000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56000000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38000000000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1627709</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="H8" t="n">
+        <v>112746</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7457547200</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12801000000</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.9001927860159984</v>
       </c>
-      <c r="D8" t="n">
+      <c r="N8" t="n">
         <v>0.8423227005985889</v>
       </c>
-      <c r="E8" t="n">
+      <c r="O8" t="n">
         <v>1.210777523318008</v>
       </c>
-      <c r="F8" t="n">
+      <c r="P8" t="n">
         <v>1.893062925307842</v>
       </c>
-      <c r="G8" t="n">
+      <c r="Q8" t="n">
         <v>-0.1871688765757988</v>
       </c>
     </row>
@@ -620,18 +864,48 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
+        <v>209000000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>184000000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25000000000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1740455</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="H9" t="n">
+        <v>66850</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18724230800</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3601000000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12148000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-26353</v>
+      </c>
+      <c r="M9" t="n">
         <v>-0.3425422915885264</v>
       </c>
-      <c r="D9" t="n">
+      <c r="N9" t="n">
         <v>-0.5061907762122538</v>
       </c>
-      <c r="E9" t="n">
+      <c r="O9" t="n">
         <v>-0.5868011479533544</v>
       </c>
-      <c r="F9" t="n">
+      <c r="P9" t="n">
         <v>-3.07143397244584</v>
       </c>
-      <c r="G9" t="n">
+      <c r="Q9" t="n">
         <v>0.2812465031941732</v>
       </c>
     </row>
@@ -643,18 +917,46 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1807305</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5496</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1199000000</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.2840978788711261</v>
       </c>
-      <c r="D10" t="n">
+      <c r="N10" t="n">
         <v>-0.2344075126535486</v>
       </c>
-      <c r="E10" t="n">
+      <c r="O10" t="n">
         <v>-0.4663687257759945</v>
       </c>
-      <c r="F10" t="n">
+      <c r="P10" t="n">
         <v>0.01321161441250016</v>
       </c>
-      <c r="G10" t="n">
+      <c r="Q10" t="n">
         <v>-0.4258371810480386</v>
       </c>
     </row>
@@ -665,11 +967,39 @@
       <c r="B11" t="b">
         <v>0</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>-3550</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -678,11 +1008,37 @@
       <c r="B12" t="b">
         <v>0</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,18 +1048,44 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1812801</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4469</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>0.8408085840118025</v>
       </c>
-      <c r="D13" t="n">
+      <c r="N13" t="n">
         <v>0.03345770878211009</v>
       </c>
-      <c r="E13" t="n">
+      <c r="O13" t="n">
         <v>0.04955514732708439</v>
       </c>
-      <c r="F13" t="n">
+      <c r="P13" t="n">
         <v>9.358729255617085</v>
       </c>
-      <c r="G13" t="n">
+      <c r="Q13" t="n">
         <v>-0.1145720319800436</v>
       </c>
     </row>
@@ -715,18 +1097,48 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
+        <v>125000000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>170000000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-45000000000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1817270</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-22822</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5332930800</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1734000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>29183280071</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-1616</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.1670468868134096</v>
       </c>
-      <c r="D14" t="n">
+      <c r="N14" t="n">
         <v>0.5945306672427577</v>
       </c>
-      <c r="E14" t="n">
+      <c r="O14" t="n">
         <v>2.717915748058488</v>
       </c>
-      <c r="F14" t="n">
+      <c r="P14" t="n">
         <v>-4.551414524024201</v>
       </c>
-      <c r="G14" t="n">
+      <c r="Q14" t="n">
         <v>-0.7415134041489883</v>
       </c>
     </row>
@@ -738,18 +1150,46 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1794448</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-17268</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6001000000</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>-1339</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.5751390254972526</v>
       </c>
-      <c r="D15" t="n">
+      <c r="N15" t="n">
         <v>0.6167461824244995</v>
       </c>
-      <c r="E15" t="n">
+      <c r="O15" t="n">
         <v>-0.0721124528779416</v>
       </c>
-      <c r="F15" t="n">
+      <c r="P15" t="n">
         <v>1.499060081496248</v>
       </c>
-      <c r="G15" t="n">
+      <c r="Q15" t="n">
         <v>-0.1576805741719043</v>
       </c>
     </row>
@@ -761,18 +1201,46 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>185000000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>153000000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32000000000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1777180</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="H16" t="n">
+        <v>44644</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16277175800</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2401000000</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-3756</v>
+      </c>
+      <c r="M16" t="n">
         <v>-1.233635386138733</v>
       </c>
-      <c r="D16" t="n">
+      <c r="N16" t="n">
         <v>-1.311434002946211</v>
       </c>
-      <c r="E16" t="n">
+      <c r="O16" t="n">
         <v>-1.5487197814543</v>
       </c>
-      <c r="F16" t="n">
+      <c r="P16" t="n">
         <v>-4.720808366580733</v>
       </c>
-      <c r="G16" t="n">
+      <c r="Q16" t="n">
         <v>-0.2947976093922036</v>
       </c>
     </row>
@@ -784,18 +1252,44 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1821824</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1825498</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3674</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1732000000</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>-0.6223250256536601</v>
       </c>
-      <c r="D17" t="n">
+      <c r="N17" t="n">
         <v>-0.6875838878253876</v>
       </c>
-      <c r="E17" t="n">
+      <c r="O17" t="n">
         <v>0.6316771683602186</v>
       </c>
-      <c r="F17" t="n">
+      <c r="P17" t="n">
         <v>-6.784552766329935</v>
       </c>
-      <c r="G17" t="n">
+      <c r="Q17" t="n">
         <v>-0.2637965694370324</v>
       </c>
     </row>
@@ -806,11 +1300,31 @@
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -819,11 +1333,31 @@
       <c r="B19" t="b">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -833,18 +1367,38 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8801000000</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>0.7385469044350499</v>
       </c>
-      <c r="D20" t="n">
+      <c r="N20" t="n">
         <v>0.4343630519790444</v>
       </c>
-      <c r="E20" t="n">
+      <c r="O20" t="n">
         <v>1.479506711433924</v>
       </c>
-      <c r="F20" t="n">
+      <c r="P20" t="n">
         <v>8.543552305640244</v>
       </c>
-      <c r="G20" t="n">
+      <c r="Q20" t="n">
         <v>-0.8055136709291276</v>
       </c>
     </row>
